--- a/data/trans_dic/P39A4_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P39A4_2023-Dificultad-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.9304352393940484</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.9107186263382695</v>
+        <v>0.9107186263382696</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.9189210932928514</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8990955988390797</v>
+        <v>0.8941814682638562</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8854099792364286</v>
+        <v>0.8816252189591002</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9009277100645984</v>
+        <v>0.9007524344488006</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9546949412697192</v>
+        <v>0.953401771031232</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9311465848121736</v>
+        <v>0.929498242056857</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.935945534617587</v>
+        <v>0.9343761964234376</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.9357446512847292</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.9264105231487489</v>
+        <v>0.9264105231487488</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9307466395700653</v>
+        <v>0.9307466395700651</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9145006496221292</v>
+        <v>0.9160531387621769</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9097828329229658</v>
+        <v>0.9110475695504112</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9183128362834141</v>
+        <v>0.9181580482123071</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9516517758849897</v>
+        <v>0.9525725524551777</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9393030749960227</v>
+        <v>0.9401514930859062</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.942521470150813</v>
+        <v>0.9413988607750031</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.9352981460496251</v>
+        <v>0.935298146049625</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.9233598341687917</v>
+        <v>0.9233598341687916</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9293513118659138</v>
+        <v>0.9293513118659137</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9147473868307993</v>
+        <v>0.9174968163010423</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9062697415862262</v>
+        <v>0.9088043291784572</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9174259956660212</v>
+        <v>0.9161748124496859</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9514094450224213</v>
+        <v>0.9520659301525201</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9364617666632746</v>
+        <v>0.9372913714673572</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9402738480982166</v>
+        <v>0.9400043925227812</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.8807677727022799</v>
+        <v>0.8807677727022798</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.9251656560572855</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9019482493227422</v>
+        <v>0.9019482493227424</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8547732070542844</v>
+        <v>0.853864146354877</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9075045228015707</v>
+        <v>0.9055612245793472</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8852174187906774</v>
+        <v>0.8837415834369154</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9036906966811826</v>
+        <v>0.9040309271966233</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.939953818429406</v>
+        <v>0.940287807334041</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9168276453966262</v>
+        <v>0.9154996967327299</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.9227204915841906</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9208044410099403</v>
+        <v>0.9208044410099406</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9082118313531701</v>
+        <v>0.9058288698434405</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9147363348077161</v>
+        <v>0.914342881930594</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9131899384846438</v>
+        <v>0.913373061807827</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9304290570183322</v>
+        <v>0.9292792248096643</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9308703096652883</v>
+        <v>0.9304397884084067</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9273378428593685</v>
+        <v>0.9269379601949641</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>347520</v>
+        <v>345621</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>480403</v>
+        <v>478350</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>837052</v>
+        <v>836889</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>369011</v>
+        <v>368511</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>505219</v>
+        <v>504324</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>869587</v>
+        <v>868129</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>807534</v>
+        <v>808905</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>926001</v>
+        <v>927288</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1745583</v>
+        <v>1745289</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>840340</v>
+        <v>841153</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>956047</v>
+        <v>956911</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1791600</v>
+        <v>1789466</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>918626</v>
+        <v>921387</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>903331</v>
+        <v>905857</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1835768</v>
+        <v>1833264</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>955443</v>
+        <v>956103</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>933425</v>
+        <v>934252</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1881486</v>
+        <v>1880947</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>811940</v>
+        <v>811076</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>786400</v>
+        <v>784716</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1607945</v>
+        <v>1605264</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>858406</v>
+        <v>858729</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>814519</v>
+        <v>814808</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1665363</v>
+        <v>1662951</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2927789</v>
+        <v>2920107</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3131795</v>
+        <v>3130448</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>6070337</v>
+        <v>6071554</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2999410</v>
+        <v>2995703</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>3187033</v>
+        <v>3185559</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6164384</v>
+        <v>6161726</v>
       </c>
     </row>
     <row r="24">
